--- a/testData/Opencart_LoginData.xlsx
+++ b/testData/Opencart_LoginData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>username</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>xyz</t>
-  </si>
-  <si>
-    <t>invalid</t>
   </si>
   <si>
     <t>abc123@gmail.com</t>
@@ -1069,7 +1066,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="2"/>
@@ -1131,15 +1128,15 @@
         <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" ht="21" spans="1:3">
       <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>5</v>
